--- a/fruit-sum-average.xlsx
+++ b/fruit-sum-average.xlsx
@@ -5,17 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saiko\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saiko\Github\New Projects\Large Projects\Data Science\udacity-data-challenger-track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355CBFC7-6C3E-4802-B5E6-7FE5FBC4E081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58233E95-EC10-43E9-B024-FF28573C2313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="accounts" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="accounts" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">accounts!$A$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">accounts!$A$2:$G$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">accounts!$A$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">accounts!$A$2:$G$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">accounts!$A$1:$G$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">accounts!$A$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Order</t>
   </si>
@@ -59,6 +71,30 @@
   </si>
   <si>
     <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Sum of Apples</t>
+  </si>
+  <si>
+    <t>Sum of Oranges</t>
+  </si>
+  <si>
+    <t>Sum of Pears</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Pineapple</t>
+  </si>
+  <si>
+    <t>Count of Peaches</t>
   </si>
 </sst>
 </file>
@@ -201,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -211,6 +247,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -227,6 +268,1068 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Chart Title</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Chart Title</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{AAF8A6D9-F290-43DA-B666-56F4877D7C1F}">
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="68000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="84000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>271462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827C7994-ECB9-46B1-AA59-6E19E7C9A445}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4191000" y="271462"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Saiko" refreshedDate="44637.572354745367" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="13" xr:uid="{D3F4DB32-AFCD-420C-BA17-336E70C9A644}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G1048576" sheet="accounts"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Order" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10" count="11">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Apples" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Oranges" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Pears" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Peaches" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="9" count="9">
+        <n v="5"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="2"/>
+        <n v="7"/>
+        <n v="9"/>
+        <n v="1"/>
+        <m/>
+        <s v="Average pieces per order"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Pineapple" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Fruits" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9" maxValue="29"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="13">
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="4"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="6"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="10"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="5"/>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <m/>
+    <n v="13.8"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A8B6A970-084E-442C-92E2-089160EA8A2D}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Sum of Apples" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Count of Peaches" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Oranges" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Pears" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Pineapple" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,11 +1628,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7906C51D-ADAF-4778-BB6F-71B8B96A6FB1}">
+  <dimension ref="A3:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9">
+        <v>11</v>
+      </c>
+      <c r="D15" s="9">
+        <v>20</v>
+      </c>
+      <c r="E15" s="9">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5703125" defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
@@ -813,5 +2191,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>